--- a/tests/results/c_results.xlsx
+++ b/tests/results/c_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:C361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>113.305</v>
+        <v>7.674</v>
       </c>
       <c r="C2" t="n">
-        <v>113.305</v>
+        <v>7.265</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>114.79</v>
+        <v>7.42</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>104.939</v>
+        <v>7.253</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>119.977</v>
+        <v>7.012</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -493,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>88.56100000000001</v>
+        <v>7.265</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>25.791</v>
+        <v>8.23</v>
       </c>
       <c r="C7" t="n">
-        <v>24.239</v>
+        <v>8.284000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>24.239</v>
+        <v>8.24</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>25.665</v>
+        <v>8.284000000000001</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>23.992</v>
+        <v>8.384</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>21.891</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>17.757</v>
+        <v>12.83</v>
       </c>
       <c r="C12" t="n">
-        <v>15.501</v>
+        <v>12.557</v>
       </c>
     </row>
     <row r="13">
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>14.407</v>
+        <v>12.65</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>14.386</v>
+        <v>12.431</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>15.67</v>
+        <v>12.553</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>15.501</v>
+        <v>12.557</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>8.529</v>
+        <v>20.879</v>
       </c>
       <c r="C17" t="n">
-        <v>9.346</v>
+        <v>20.733</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>9.346</v>
+        <v>20.688</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>12.011</v>
+        <v>20.671</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>13.608</v>
+        <v>20.766</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>9.217000000000001</v>
+        <v>20.733</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
@@ -643,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>15.847</v>
+        <v>37.451</v>
       </c>
       <c r="C22" t="n">
-        <v>9.827</v>
+        <v>38.342</v>
       </c>
     </row>
     <row r="23">
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>7.244</v>
+        <v>38.342</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>7.808</v>
+        <v>39.662</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
@@ -672,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>13.607</v>
+        <v>39.375</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>9.827</v>
+        <v>38.074</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
@@ -690,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>16.654</v>
+        <v>71.82299999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>11.887</v>
+        <v>72.11</v>
       </c>
     </row>
     <row r="28">
@@ -701,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>11.465</v>
+        <v>72.562</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>11.35</v>
+        <v>72.13800000000001</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>18.663</v>
+        <v>71.10299999999999</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>11.887</v>
+        <v>72.11</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
@@ -737,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>12.339</v>
+        <v>19.156</v>
       </c>
       <c r="C32" t="n">
-        <v>12.309</v>
+        <v>17.824</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>12.371</v>
+        <v>15.987</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="n">
-        <v>12.265</v>
+        <v>15.72</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>12.281</v>
+        <v>20.559</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
@@ -775,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>12.309</v>
+        <v>17.824</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
@@ -784,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>22.441</v>
+        <v>24.592</v>
       </c>
       <c r="C37" t="n">
-        <v>22.471</v>
+        <v>24.592</v>
       </c>
     </row>
     <row r="38">
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>22.516</v>
+        <v>24.387</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="n">
-        <v>22.471</v>
+        <v>24.689</v>
       </c>
       <c r="C39" t="inlineStr"/>
     </row>
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>22.411</v>
+        <v>24.228</v>
       </c>
       <c r="C40" t="inlineStr"/>
     </row>
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>22.527</v>
+        <v>25.112</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>43.592</v>
+        <v>43.69</v>
       </c>
       <c r="C42" t="n">
-        <v>43.578</v>
+        <v>43.939</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>43.43</v>
+        <v>44.624</v>
       </c>
       <c r="C43" t="inlineStr"/>
     </row>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="n">
-        <v>43.466</v>
+        <v>43.939</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="n">
-        <v>43.578</v>
+        <v>44.486</v>
       </c>
       <c r="C45" t="inlineStr"/>
     </row>
@@ -869,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>43.73</v>
+        <v>43.678</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
@@ -878,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>153.316</v>
+        <v>79.876</v>
       </c>
       <c r="C47" t="n">
-        <v>153.934</v>
+        <v>77.88200000000001</v>
       </c>
     </row>
     <row r="48">
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>153.934</v>
+        <v>78.39100000000001</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="n">
-        <v>167.317</v>
+        <v>77.88200000000001</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="n">
-        <v>141.226</v>
+        <v>77.821</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="n">
-        <v>199.887</v>
+        <v>77.714</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
@@ -925,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>30.382</v>
+        <v>143.518</v>
       </c>
       <c r="C52" t="n">
-        <v>30.382</v>
+        <v>143.677</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>32.016</v>
+        <v>143.677</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="n">
-        <v>34.452</v>
+        <v>143.876</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="n">
-        <v>26.897</v>
+        <v>144.532</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
@@ -963,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="n">
-        <v>29.37</v>
+        <v>143.34</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
@@ -972,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>16.757</v>
+        <v>317.804</v>
       </c>
       <c r="C57" t="n">
-        <v>17.203</v>
+        <v>312.564</v>
       </c>
     </row>
     <row r="58">
@@ -983,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>18.917</v>
+        <v>304.981</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
@@ -992,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="n">
-        <v>16.032</v>
+        <v>312.564</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="n">
-        <v>17.351</v>
+        <v>313.11</v>
       </c>
       <c r="C60" t="inlineStr"/>
     </row>
@@ -1010,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="B61" t="n">
-        <v>17.203</v>
+        <v>303.604</v>
       </c>
       <c r="C61" t="inlineStr"/>
     </row>
@@ -1019,10 +1019,10 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>15.737</v>
+        <v>514.283</v>
       </c>
       <c r="C62" t="n">
-        <v>18.883</v>
+        <v>514.283</v>
       </c>
     </row>
     <row r="63">
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>24.161</v>
+        <v>509.008</v>
       </c>
       <c r="C63" t="inlineStr"/>
     </row>
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="n">
-        <v>21.764</v>
+        <v>507.611</v>
       </c>
       <c r="C64" t="inlineStr"/>
     </row>
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="n">
-        <v>18.883</v>
+        <v>517.566</v>
       </c>
       <c r="C65" t="inlineStr"/>
     </row>
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="B66" t="n">
-        <v>13.682</v>
+        <v>518.535</v>
       </c>
       <c r="C66" t="inlineStr"/>
     </row>
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>45.415</v>
+        <v>518.28</v>
       </c>
       <c r="C67" t="n">
-        <v>31.421</v>
+        <v>505.629</v>
       </c>
     </row>
     <row r="68">
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>31.421</v>
+        <v>503.248</v>
       </c>
       <c r="C68" t="inlineStr"/>
     </row>
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="n">
-        <v>23.419</v>
+        <v>492.21</v>
       </c>
       <c r="C69" t="inlineStr"/>
     </row>
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="n">
-        <v>40.583</v>
+        <v>505.629</v>
       </c>
       <c r="C70" t="inlineStr"/>
     </row>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="n">
-        <v>23.928</v>
+        <v>511.849</v>
       </c>
       <c r="C71" t="inlineStr"/>
     </row>
@@ -1113,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>36.111</v>
+        <v>684.556</v>
       </c>
       <c r="C72" t="n">
-        <v>36.111</v>
+        <v>683.304</v>
       </c>
     </row>
     <row r="73">
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>37.271</v>
+        <v>681.353</v>
       </c>
       <c r="C73" t="inlineStr"/>
     </row>
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="n">
-        <v>28.104</v>
+        <v>679.393</v>
       </c>
       <c r="C74" t="inlineStr"/>
     </row>
@@ -1142,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="n">
-        <v>26.207</v>
+        <v>683.304</v>
       </c>
       <c r="C75" t="inlineStr"/>
     </row>
@@ -1151,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="B76" t="n">
-        <v>41.936</v>
+        <v>683.686</v>
       </c>
       <c r="C76" t="inlineStr"/>
     </row>
@@ -1160,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>35.055</v>
+        <v>1185.144</v>
       </c>
       <c r="C77" t="n">
-        <v>34.907</v>
+        <v>1180.764</v>
       </c>
     </row>
     <row r="78">
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>35.153</v>
+        <v>1176.526</v>
       </c>
       <c r="C78" t="inlineStr"/>
     </row>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="n">
-        <v>34.764</v>
+        <v>1177.685</v>
       </c>
       <c r="C79" t="inlineStr"/>
     </row>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="n">
-        <v>34.887</v>
+        <v>1187.184</v>
       </c>
       <c r="C80" t="inlineStr"/>
     </row>
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="B81" t="n">
-        <v>34.907</v>
+        <v>1180.764</v>
       </c>
       <c r="C81" t="inlineStr"/>
     </row>
@@ -1207,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>100.972</v>
+        <v>2251.134</v>
       </c>
       <c r="C82" t="n">
-        <v>101.378</v>
+        <v>2170.794</v>
       </c>
     </row>
     <row r="83">
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>103.186</v>
+        <v>2531.149</v>
       </c>
       <c r="C83" t="inlineStr"/>
     </row>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="n">
-        <v>100.901</v>
+        <v>2167.22</v>
       </c>
       <c r="C84" t="inlineStr"/>
     </row>
@@ -1236,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="n">
-        <v>101.378</v>
+        <v>2162.782</v>
       </c>
       <c r="C85" t="inlineStr"/>
     </row>
@@ -1245,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="n">
-        <v>105.122</v>
+        <v>2170.794</v>
       </c>
       <c r="C86" t="inlineStr"/>
     </row>
@@ -1254,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>259.327</v>
+        <v>4587.099</v>
       </c>
       <c r="C87" t="n">
-        <v>259.329</v>
+        <v>4323.41</v>
       </c>
     </row>
     <row r="88">
@@ -1265,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>259.329</v>
+        <v>4416.298</v>
       </c>
       <c r="C88" t="inlineStr"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="n">
-        <v>260.667</v>
+        <v>4298.128</v>
       </c>
       <c r="C89" t="inlineStr"/>
     </row>
@@ -1283,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="B90" t="n">
-        <v>259.103</v>
+        <v>4312.157</v>
       </c>
       <c r="C90" t="inlineStr"/>
     </row>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B91" t="n">
-        <v>260.577</v>
+        <v>4323.41</v>
       </c>
       <c r="C91" t="inlineStr"/>
     </row>
@@ -1301,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>429.694</v>
+        <v>1.566</v>
       </c>
       <c r="C92" t="n">
-        <v>457.639</v>
+        <v>1.499</v>
       </c>
     </row>
     <row r="93">
@@ -1312,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>457.639</v>
+        <v>1.499</v>
       </c>
       <c r="C93" t="inlineStr"/>
     </row>
@@ -1321,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>493.541</v>
+        <v>1.435</v>
       </c>
       <c r="C94" t="inlineStr"/>
     </row>
@@ -1330,7 +1330,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="n">
-        <v>497.522</v>
+        <v>1.458</v>
       </c>
       <c r="C95" t="inlineStr"/>
     </row>
@@ -1339,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="B96" t="n">
-        <v>269.823</v>
+        <v>1.606</v>
       </c>
       <c r="C96" t="inlineStr"/>
     </row>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>89.684</v>
+        <v>2.028</v>
       </c>
       <c r="C97" t="n">
-        <v>89.684</v>
+        <v>2.015</v>
       </c>
     </row>
     <row r="98">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>83.88500000000001</v>
+        <v>2.01</v>
       </c>
       <c r="C98" t="inlineStr"/>
     </row>
@@ -1368,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="n">
-        <v>90.70999999999999</v>
+        <v>2.023</v>
       </c>
       <c r="C99" t="inlineStr"/>
     </row>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="n">
-        <v>88.864</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr"/>
     </row>
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B101" t="n">
-        <v>93.196</v>
+        <v>2.015</v>
       </c>
       <c r="C101" t="inlineStr"/>
     </row>
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>87.494</v>
+        <v>2.726</v>
       </c>
       <c r="C102" t="n">
-        <v>84.774</v>
+        <v>2.769</v>
       </c>
     </row>
     <row r="103">
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>84.59999999999999</v>
+        <v>2.753</v>
       </c>
       <c r="C103" t="inlineStr"/>
     </row>
@@ -1415,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="n">
-        <v>83.066</v>
+        <v>2.769</v>
       </c>
       <c r="C104" t="inlineStr"/>
     </row>
@@ -1424,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="n">
-        <v>88.053</v>
+        <v>2.827</v>
       </c>
       <c r="C105" t="inlineStr"/>
     </row>
@@ -1433,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="B106" t="n">
-        <v>84.774</v>
+        <v>2.855</v>
       </c>
       <c r="C106" t="inlineStr"/>
     </row>
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>323.573</v>
+        <v>4.116</v>
       </c>
       <c r="C107" t="n">
-        <v>331.325</v>
+        <v>4.061</v>
       </c>
     </row>
     <row r="108">
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>338.419</v>
+        <v>4.061</v>
       </c>
       <c r="C108" t="inlineStr"/>
     </row>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="n">
-        <v>351.952</v>
+        <v>4.028</v>
       </c>
       <c r="C109" t="inlineStr"/>
     </row>
@@ -1471,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="n">
-        <v>312.533</v>
+        <v>4.179</v>
       </c>
       <c r="C110" t="inlineStr"/>
     </row>
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="n">
-        <v>331.325</v>
+        <v>4.037</v>
       </c>
       <c r="C111" t="inlineStr"/>
     </row>
@@ -1489,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>564.241</v>
+        <v>6.876</v>
       </c>
       <c r="C112" t="n">
-        <v>564.241</v>
+        <v>6.876</v>
       </c>
     </row>
     <row r="113">
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
-        <v>521.398</v>
+        <v>6.947</v>
       </c>
       <c r="C113" t="inlineStr"/>
     </row>
@@ -1509,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="n">
-        <v>571.415</v>
+        <v>7.031</v>
       </c>
       <c r="C114" t="inlineStr"/>
     </row>
@@ -1518,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="B115" t="n">
-        <v>746.854</v>
+        <v>6.747</v>
       </c>
       <c r="C115" t="inlineStr"/>
     </row>
@@ -1527,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="n">
-        <v>509.345</v>
+        <v>6.711</v>
       </c>
       <c r="C116" t="inlineStr"/>
     </row>
@@ -1536,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>801.598</v>
+        <v>12.607</v>
       </c>
       <c r="C117" t="n">
-        <v>720.052</v>
+        <v>12.424</v>
       </c>
     </row>
     <row r="118">
@@ -1547,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>592.208</v>
+        <v>12.662</v>
       </c>
       <c r="C118" t="inlineStr"/>
     </row>
@@ -1556,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="n">
-        <v>645.439</v>
+        <v>12.424</v>
       </c>
       <c r="C119" t="inlineStr"/>
     </row>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B120" t="n">
-        <v>959.2190000000001</v>
+        <v>12.4</v>
       </c>
       <c r="C120" t="inlineStr"/>
     </row>
@@ -1574,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="n">
-        <v>720.052</v>
+        <v>12.39</v>
       </c>
       <c r="C121" t="inlineStr"/>
     </row>
@@ -1583,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>1584.278</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>1567.294</v>
+        <v>9.603</v>
       </c>
     </row>
     <row r="123">
@@ -1594,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>1600.048</v>
+        <v>9.603</v>
       </c>
       <c r="C123" t="inlineStr"/>
     </row>
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="n">
-        <v>1567.294</v>
+        <v>9.474</v>
       </c>
       <c r="C124" t="inlineStr"/>
     </row>
@@ -1612,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="B125" t="n">
-        <v>1170.745</v>
+        <v>9.574</v>
       </c>
       <c r="C125" t="inlineStr"/>
     </row>
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="n">
-        <v>1542.719</v>
+        <v>9.612</v>
       </c>
       <c r="C126" t="inlineStr"/>
     </row>
@@ -1630,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>1532.647</v>
+        <v>12.34</v>
       </c>
       <c r="C127" t="n">
-        <v>1638.166</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="128">
@@ -1641,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>1658.538</v>
+        <v>12.505</v>
       </c>
       <c r="C128" t="inlineStr"/>
     </row>
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="n">
-        <v>1638.166</v>
+        <v>12.173</v>
       </c>
       <c r="C129" t="inlineStr"/>
     </row>
@@ -1659,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="B130" t="n">
-        <v>1654.895</v>
+        <v>12.356</v>
       </c>
       <c r="C130" t="inlineStr"/>
     </row>
@@ -1668,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="n">
-        <v>1532.484</v>
+        <v>12.262</v>
       </c>
       <c r="C131" t="inlineStr"/>
     </row>
@@ -1677,10 +1677,10 @@
         <v>1</v>
       </c>
       <c r="B132" t="n">
-        <v>2032.453</v>
+        <v>18.402</v>
       </c>
       <c r="C132" t="n">
-        <v>2025.826</v>
+        <v>18.485</v>
       </c>
     </row>
     <row r="133">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="B133" t="n">
-        <v>2025.826</v>
+        <v>18.55</v>
       </c>
       <c r="C133" t="inlineStr"/>
     </row>
@@ -1697,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="B134" t="n">
-        <v>2030.723</v>
+        <v>18.589</v>
       </c>
       <c r="C134" t="inlineStr"/>
     </row>
@@ -1706,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="B135" t="n">
-        <v>2016.505</v>
+        <v>18.485</v>
       </c>
       <c r="C135" t="inlineStr"/>
     </row>
@@ -1715,7 +1715,7 @@
         <v>5</v>
       </c>
       <c r="B136" t="n">
-        <v>2023.972</v>
+        <v>18.43</v>
       </c>
       <c r="C136" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="B137" t="n">
-        <v>30.043</v>
+        <v>28.912</v>
       </c>
       <c r="C137" t="n">
-        <v>24.02</v>
+        <v>28.912</v>
       </c>
     </row>
     <row r="138">
@@ -1735,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="B138" t="n">
-        <v>24.251</v>
+        <v>28.765</v>
       </c>
       <c r="C138" t="inlineStr"/>
     </row>
@@ -1744,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="B139" t="n">
-        <v>24.02</v>
+        <v>28.882</v>
       </c>
       <c r="C139" t="inlineStr"/>
     </row>
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="B140" t="n">
-        <v>8.737</v>
+        <v>29.796</v>
       </c>
       <c r="C140" t="inlineStr"/>
     </row>
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="B141" t="n">
-        <v>8.991</v>
+        <v>29.143</v>
       </c>
       <c r="C141" t="inlineStr"/>
     </row>
@@ -1771,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>2.916</v>
+        <v>51.672</v>
       </c>
       <c r="C142" t="n">
-        <v>3.331</v>
+        <v>51.439</v>
       </c>
     </row>
     <row r="143">
@@ -1782,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="n">
-        <v>3.331</v>
+        <v>51.591</v>
       </c>
       <c r="C143" t="inlineStr"/>
     </row>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="B144" t="n">
-        <v>4.679</v>
+        <v>51.355</v>
       </c>
       <c r="C144" t="inlineStr"/>
     </row>
@@ -1800,7 +1800,7 @@
         <v>4</v>
       </c>
       <c r="B145" t="n">
-        <v>4.605</v>
+        <v>51.439</v>
       </c>
       <c r="C145" t="inlineStr"/>
     </row>
@@ -1809,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="B146" t="n">
-        <v>3.091</v>
+        <v>51.117</v>
       </c>
       <c r="C146" t="inlineStr"/>
     </row>
@@ -1818,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>2.401</v>
+        <v>116.487</v>
       </c>
       <c r="C147" t="n">
-        <v>2.669</v>
+        <v>116.487</v>
       </c>
     </row>
     <row r="148">
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="B148" t="n">
-        <v>2.693</v>
+        <v>116.226</v>
       </c>
       <c r="C148" t="inlineStr"/>
     </row>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="B149" t="n">
-        <v>2.669</v>
+        <v>116.905</v>
       </c>
       <c r="C149" t="inlineStr"/>
     </row>
@@ -1847,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="n">
-        <v>2.07</v>
+        <v>116.302</v>
       </c>
       <c r="C150" t="inlineStr"/>
     </row>
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="B151" t="n">
-        <v>2.767</v>
+        <v>116.488</v>
       </c>
       <c r="C151" t="inlineStr"/>
     </row>
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>1.248</v>
+        <v>684.747</v>
       </c>
       <c r="C152" t="n">
-        <v>1.248</v>
+        <v>692.273</v>
       </c>
     </row>
     <row r="153">
@@ -1876,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="n">
-        <v>1.374</v>
+        <v>689.0069999999999</v>
       </c>
       <c r="C153" t="inlineStr"/>
     </row>
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="B154" t="n">
-        <v>1.075</v>
+        <v>710.357</v>
       </c>
       <c r="C154" t="inlineStr"/>
     </row>
@@ -1894,7 +1894,7 @@
         <v>4</v>
       </c>
       <c r="B155" t="n">
-        <v>1.098</v>
+        <v>692.273</v>
       </c>
       <c r="C155" t="inlineStr"/>
     </row>
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="B156" t="n">
-        <v>1.469</v>
+        <v>712.754</v>
       </c>
       <c r="C156" t="inlineStr"/>
     </row>
@@ -1912,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>1.131</v>
+        <v>674.313</v>
       </c>
       <c r="C157" t="n">
-        <v>1.023</v>
+        <v>667.273</v>
       </c>
     </row>
     <row r="158">
@@ -1923,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>0.962</v>
+        <v>665.538</v>
       </c>
       <c r="C158" t="inlineStr"/>
     </row>
@@ -1932,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="B159" t="n">
-        <v>1.023</v>
+        <v>673.568</v>
       </c>
       <c r="C159" t="inlineStr"/>
     </row>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="B160" t="n">
-        <v>0.9419999999999999</v>
+        <v>667.273</v>
       </c>
       <c r="C160" t="inlineStr"/>
     </row>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="B161" t="n">
-        <v>1.029</v>
+        <v>665.163</v>
       </c>
       <c r="C161" t="inlineStr"/>
     </row>
@@ -1959,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>1.22</v>
+        <v>861.802</v>
       </c>
       <c r="C162" t="n">
-        <v>1.231</v>
+        <v>864.4930000000001</v>
       </c>
     </row>
     <row r="163">
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="n">
-        <v>1.959</v>
+        <v>867.628</v>
       </c>
       <c r="C163" t="inlineStr"/>
     </row>
@@ -1979,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="n">
-        <v>1.231</v>
+        <v>859.592</v>
       </c>
       <c r="C164" t="inlineStr"/>
     </row>
@@ -1988,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="B165" t="n">
-        <v>1.348</v>
+        <v>864.4930000000001</v>
       </c>
       <c r="C165" t="inlineStr"/>
     </row>
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="B166" t="n">
-        <v>1.223</v>
+        <v>869.63</v>
       </c>
       <c r="C166" t="inlineStr"/>
     </row>
@@ -2006,10 +2006,10 @@
         <v>1</v>
       </c>
       <c r="B167" t="n">
-        <v>1.827</v>
+        <v>1474.821</v>
       </c>
       <c r="C167" t="n">
-        <v>1.829</v>
+        <v>1474.821</v>
       </c>
     </row>
     <row r="168">
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="B168" t="n">
-        <v>1.841</v>
+        <v>1481.54</v>
       </c>
       <c r="C168" t="inlineStr"/>
     </row>
@@ -2026,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B169" t="n">
-        <v>1.829</v>
+        <v>1483.173</v>
       </c>
       <c r="C169" t="inlineStr"/>
     </row>
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="B170" t="n">
-        <v>1.832</v>
+        <v>1470.59</v>
       </c>
       <c r="C170" t="inlineStr"/>
     </row>
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B171" t="n">
-        <v>1.829</v>
+        <v>1462.309</v>
       </c>
       <c r="C171" t="inlineStr"/>
     </row>
@@ -2053,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>3.194</v>
+        <v>2698.652</v>
       </c>
       <c r="C172" t="n">
-        <v>3.207</v>
+        <v>2698.652</v>
       </c>
     </row>
     <row r="173">
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>3.211</v>
+        <v>2705.54</v>
       </c>
       <c r="C173" t="inlineStr"/>
     </row>
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="n">
-        <v>3.202</v>
+        <v>2697.893</v>
       </c>
       <c r="C174" t="inlineStr"/>
     </row>
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="B175" t="n">
-        <v>3.207</v>
+        <v>2688.211</v>
       </c>
       <c r="C175" t="inlineStr"/>
     </row>
@@ -2091,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="n">
-        <v>3.209</v>
+        <v>2698.729</v>
       </c>
       <c r="C176" t="inlineStr"/>
     </row>
@@ -2100,10 +2100,10 @@
         <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>6.156</v>
+        <v>5407.228</v>
       </c>
       <c r="C177" t="n">
-        <v>6.175</v>
+        <v>5450.801</v>
       </c>
     </row>
     <row r="178">
@@ -2111,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="n">
-        <v>6.16</v>
+        <v>5328.46</v>
       </c>
       <c r="C178" t="inlineStr"/>
     </row>
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="B179" t="n">
-        <v>6.175</v>
+        <v>5450.801</v>
       </c>
       <c r="C179" t="inlineStr"/>
     </row>
@@ -2129,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="B180" t="n">
-        <v>6.175</v>
+        <v>5506.274</v>
       </c>
       <c r="C180" t="inlineStr"/>
     </row>
@@ -2138,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="B181" t="n">
-        <v>6.18</v>
+        <v>5839.722</v>
       </c>
       <c r="C181" t="inlineStr"/>
     </row>
@@ -2147,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="B182" t="n">
-        <v>33.043</v>
+        <v>2.141</v>
       </c>
       <c r="C182" t="n">
-        <v>40.226</v>
+        <v>2.046</v>
       </c>
     </row>
     <row r="183">
@@ -2158,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="B183" t="n">
-        <v>34.854</v>
+        <v>2.391</v>
       </c>
       <c r="C183" t="inlineStr"/>
     </row>
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="B184" t="n">
-        <v>50.113</v>
+        <v>1.976</v>
       </c>
       <c r="C184" t="inlineStr"/>
     </row>
@@ -2176,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="B185" t="n">
-        <v>40.226</v>
+        <v>1.999</v>
       </c>
       <c r="C185" t="inlineStr"/>
     </row>
@@ -2185,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="B186" t="n">
-        <v>67.218</v>
+        <v>2.046</v>
       </c>
       <c r="C186" t="inlineStr"/>
     </row>
@@ -2194,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>7.306</v>
+        <v>2.917</v>
       </c>
       <c r="C187" t="n">
-        <v>7.199</v>
+        <v>2.958</v>
       </c>
     </row>
     <row r="188">
@@ -2205,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="n">
-        <v>7.178</v>
+        <v>2.958</v>
       </c>
       <c r="C188" t="inlineStr"/>
     </row>
@@ -2214,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="B189" t="n">
-        <v>8.065</v>
+        <v>2.962</v>
       </c>
       <c r="C189" t="inlineStr"/>
     </row>
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="B190" t="n">
-        <v>7.095</v>
+        <v>2.95</v>
       </c>
       <c r="C190" t="inlineStr"/>
     </row>
@@ -2232,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="B191" t="n">
-        <v>7.199</v>
+        <v>2.975</v>
       </c>
       <c r="C191" t="inlineStr"/>
     </row>
@@ -2241,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="B192" t="n">
-        <v>5.493</v>
+        <v>3.662</v>
       </c>
       <c r="C192" t="n">
-        <v>5.169</v>
+        <v>3.676</v>
       </c>
     </row>
     <row r="193">
@@ -2252,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="B193" t="n">
-        <v>4.783</v>
+        <v>3.697</v>
       </c>
       <c r="C193" t="inlineStr"/>
     </row>
@@ -2261,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="B194" t="n">
-        <v>5.075</v>
+        <v>3.74</v>
       </c>
       <c r="C194" t="inlineStr"/>
     </row>
@@ -2270,7 +2270,7 @@
         <v>4</v>
       </c>
       <c r="B195" t="n">
-        <v>5.169</v>
+        <v>3.673</v>
       </c>
       <c r="C195" t="inlineStr"/>
     </row>
@@ -2279,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="B196" t="n">
-        <v>5.21</v>
+        <v>3.676</v>
       </c>
       <c r="C196" t="inlineStr"/>
     </row>
@@ -2288,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="B197" t="n">
-        <v>3.828</v>
+        <v>5.167</v>
       </c>
       <c r="C197" t="n">
-        <v>3.897</v>
+        <v>5.132</v>
       </c>
     </row>
     <row r="198">
@@ -2299,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="B198" t="n">
-        <v>3.763</v>
+        <v>5.01</v>
       </c>
       <c r="C198" t="inlineStr"/>
     </row>
@@ -2308,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="B199" t="n">
-        <v>3.976</v>
+        <v>5.132</v>
       </c>
       <c r="C199" t="inlineStr"/>
     </row>
@@ -2317,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="B200" t="n">
-        <v>3.897</v>
+        <v>5.234</v>
       </c>
       <c r="C200" t="inlineStr"/>
     </row>
@@ -2326,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="B201" t="n">
-        <v>4.123</v>
+        <v>5.082</v>
       </c>
       <c r="C201" t="inlineStr"/>
     </row>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>5.725</v>
+        <v>7.986</v>
       </c>
       <c r="C202" t="n">
-        <v>5.238</v>
+        <v>8.034000000000001</v>
       </c>
     </row>
     <row r="203">
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="B203" t="n">
-        <v>5.288</v>
+        <v>8.034000000000001</v>
       </c>
       <c r="C203" t="inlineStr"/>
     </row>
@@ -2355,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="n">
-        <v>5.038</v>
+        <v>8.058</v>
       </c>
       <c r="C204" t="inlineStr"/>
     </row>
@@ -2364,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="B205" t="n">
-        <v>5.121</v>
+        <v>8.006</v>
       </c>
       <c r="C205" t="inlineStr"/>
     </row>
@@ -2373,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="B206" t="n">
-        <v>5.238</v>
+        <v>8.042</v>
       </c>
       <c r="C206" t="inlineStr"/>
     </row>
@@ -2382,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="B207" t="n">
-        <v>7.526</v>
+        <v>14.446</v>
       </c>
       <c r="C207" t="n">
-        <v>7.526</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="208">
@@ -2393,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="B208" t="n">
-        <v>7.389</v>
+        <v>14.39</v>
       </c>
       <c r="C208" t="inlineStr"/>
     </row>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="B209" t="n">
-        <v>7.533</v>
+        <v>14.335</v>
       </c>
       <c r="C209" t="inlineStr"/>
     </row>
@@ -2411,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="B210" t="n">
-        <v>7.46</v>
+        <v>14.432</v>
       </c>
       <c r="C210" t="inlineStr"/>
     </row>
@@ -2420,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="B211" t="n">
-        <v>8.212</v>
+        <v>14.358</v>
       </c>
       <c r="C211" t="inlineStr"/>
     </row>
@@ -2429,10 +2429,10 @@
         <v>1</v>
       </c>
       <c r="B212" t="n">
-        <v>12.618</v>
+        <v>13.367</v>
       </c>
       <c r="C212" t="n">
-        <v>12.618</v>
+        <v>13.051</v>
       </c>
     </row>
     <row r="213">
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="B213" t="n">
-        <v>12.599</v>
+        <v>13.051</v>
       </c>
       <c r="C213" t="inlineStr"/>
     </row>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="n">
-        <v>12.596</v>
+        <v>13.022</v>
       </c>
       <c r="C214" t="inlineStr"/>
     </row>
@@ -2458,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="B215" t="n">
-        <v>12.628</v>
+        <v>13.02</v>
       </c>
       <c r="C215" t="inlineStr"/>
     </row>
@@ -2467,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="B216" t="n">
-        <v>12.696</v>
+        <v>13.309</v>
       </c>
       <c r="C216" t="inlineStr"/>
     </row>
@@ -2476,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="B217" t="n">
-        <v>36.594</v>
+        <v>15.611</v>
       </c>
       <c r="C217" t="n">
-        <v>36.503</v>
+        <v>15.612</v>
       </c>
     </row>
     <row r="218">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="B218" t="n">
-        <v>36.012</v>
+        <v>15.612</v>
       </c>
       <c r="C218" t="inlineStr"/>
     </row>
@@ -2496,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="B219" t="n">
-        <v>36.503</v>
+        <v>15.661</v>
       </c>
       <c r="C219" t="inlineStr"/>
     </row>
@@ -2505,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="n">
-        <v>36</v>
+        <v>15.618</v>
       </c>
       <c r="C220" t="inlineStr"/>
     </row>
@@ -2514,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="B221" t="n">
-        <v>36.567</v>
+        <v>15.574</v>
       </c>
       <c r="C221" t="inlineStr"/>
     </row>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="B222" t="n">
-        <v>72.52200000000001</v>
+        <v>19.605</v>
       </c>
       <c r="C222" t="n">
-        <v>72.751</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="223">
@@ -2534,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="B223" t="n">
-        <v>72.992</v>
+        <v>19.685</v>
       </c>
       <c r="C223" t="inlineStr"/>
     </row>
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="B224" t="n">
-        <v>72.651</v>
+        <v>20.395</v>
       </c>
       <c r="C224" t="inlineStr"/>
     </row>
@@ -2552,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="B225" t="n">
-        <v>72.751</v>
+        <v>20.447</v>
       </c>
       <c r="C225" t="inlineStr"/>
     </row>
@@ -2561,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="B226" t="n">
-        <v>72.759</v>
+        <v>20.39</v>
       </c>
       <c r="C226" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="B227" t="n">
-        <v>955.63</v>
+        <v>29.536</v>
       </c>
       <c r="C227" t="n">
-        <v>830.2569999999999</v>
+        <v>29.576</v>
       </c>
     </row>
     <row r="228">
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="B228" t="n">
-        <v>830.2569999999999</v>
+        <v>29.576</v>
       </c>
       <c r="C228" t="inlineStr"/>
     </row>
@@ -2590,7 +2590,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="n">
-        <v>2209.257</v>
+        <v>29.65</v>
       </c>
       <c r="C229" t="inlineStr"/>
     </row>
@@ -2599,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="B230" t="n">
-        <v>770.494</v>
+        <v>29.337</v>
       </c>
       <c r="C230" t="inlineStr"/>
     </row>
@@ -2608,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B231" t="n">
-        <v>786.974</v>
+        <v>29.757</v>
       </c>
       <c r="C231" t="inlineStr"/>
     </row>
@@ -2617,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="B232" t="n">
-        <v>157.02</v>
+        <v>51.598</v>
       </c>
       <c r="C232" t="n">
-        <v>155.575</v>
+        <v>51.804</v>
       </c>
     </row>
     <row r="233">
@@ -2628,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="n">
-        <v>160.631</v>
+        <v>51.844</v>
       </c>
       <c r="C233" t="inlineStr"/>
     </row>
@@ -2637,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="B234" t="n">
-        <v>149.704</v>
+        <v>52.151</v>
       </c>
       <c r="C234" t="inlineStr"/>
     </row>
@@ -2646,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="B235" t="n">
-        <v>155.575</v>
+        <v>51.804</v>
       </c>
       <c r="C235" t="inlineStr"/>
     </row>
@@ -2655,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="B236" t="n">
-        <v>155.297</v>
+        <v>51.457</v>
       </c>
       <c r="C236" t="inlineStr"/>
     </row>
@@ -2664,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="B237" t="n">
-        <v>168.474</v>
+        <v>99.89700000000001</v>
       </c>
       <c r="C237" t="n">
-        <v>158.715</v>
+        <v>100.649</v>
       </c>
     </row>
     <row r="238">
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="B238" t="n">
-        <v>147.161</v>
+        <v>100.792</v>
       </c>
       <c r="C238" t="inlineStr"/>
     </row>
@@ -2684,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="n">
-        <v>165.906</v>
+        <v>100.649</v>
       </c>
       <c r="C239" t="inlineStr"/>
     </row>
@@ -2693,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="B240" t="n">
-        <v>158.715</v>
+        <v>100.346</v>
       </c>
       <c r="C240" t="inlineStr"/>
     </row>
@@ -2702,7 +2702,7 @@
         <v>5</v>
       </c>
       <c r="B241" t="n">
-        <v>153.085</v>
+        <v>101.134</v>
       </c>
       <c r="C241" t="inlineStr"/>
     </row>
@@ -2711,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="B242" t="n">
-        <v>518.845</v>
+        <v>356.851</v>
       </c>
       <c r="C242" t="n">
-        <v>509.5</v>
+        <v>349.818</v>
       </c>
     </row>
     <row r="243">
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="B243" t="n">
-        <v>535.173</v>
+        <v>352.401</v>
       </c>
       <c r="C243" t="inlineStr"/>
     </row>
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="n">
-        <v>509.5</v>
+        <v>349.544</v>
       </c>
       <c r="C244" t="inlineStr"/>
     </row>
@@ -2740,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="B245" t="n">
-        <v>498.026</v>
+        <v>349.818</v>
       </c>
       <c r="C245" t="inlineStr"/>
     </row>
@@ -2749,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="B246" t="n">
-        <v>468.373</v>
+        <v>349.466</v>
       </c>
       <c r="C246" t="inlineStr"/>
     </row>
@@ -2758,10 +2758,10 @@
         <v>1</v>
       </c>
       <c r="B247" t="n">
-        <v>839.052</v>
+        <v>341.524</v>
       </c>
       <c r="C247" t="n">
-        <v>765.498</v>
+        <v>340.974</v>
       </c>
     </row>
     <row r="248">
@@ -2769,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="B248" t="n">
-        <v>733.0069999999999</v>
+        <v>339.178</v>
       </c>
       <c r="C248" t="inlineStr"/>
     </row>
@@ -2778,7 +2778,7 @@
         <v>3</v>
       </c>
       <c r="B249" t="n">
-        <v>870.659</v>
+        <v>335.46</v>
       </c>
       <c r="C249" t="inlineStr"/>
     </row>
@@ -2787,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="B250" t="n">
-        <v>765.498</v>
+        <v>341.939</v>
       </c>
       <c r="C250" t="inlineStr"/>
     </row>
@@ -2796,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="B251" t="n">
-        <v>714.9109999999999</v>
+        <v>340.974</v>
       </c>
       <c r="C251" t="inlineStr"/>
     </row>
@@ -2805,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="B252" t="n">
-        <v>1049.834</v>
+        <v>445.677</v>
       </c>
       <c r="C252" t="n">
-        <v>1049.834</v>
+        <v>442.682</v>
       </c>
     </row>
     <row r="253">
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="B253" t="n">
-        <v>1013.282</v>
+        <v>439.54</v>
       </c>
       <c r="C253" t="inlineStr"/>
     </row>
@@ -2825,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="B254" t="n">
-        <v>1225.447</v>
+        <v>443.99</v>
       </c>
       <c r="C254" t="inlineStr"/>
     </row>
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="n">
-        <v>1052.011</v>
+        <v>439.769</v>
       </c>
       <c r="C255" t="inlineStr"/>
     </row>
@@ -2843,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="B256" t="n">
-        <v>1018.837</v>
+        <v>442.682</v>
       </c>
       <c r="C256" t="inlineStr"/>
     </row>
@@ -2852,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="B257" t="n">
-        <v>2005.13</v>
+        <v>757.133</v>
       </c>
       <c r="C257" t="n">
-        <v>2005.678</v>
+        <v>757.133</v>
       </c>
     </row>
     <row r="258">
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B258" t="n">
-        <v>2005.678</v>
+        <v>758.952</v>
       </c>
       <c r="C258" t="inlineStr"/>
     </row>
@@ -2872,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="B259" t="n">
-        <v>2006.495</v>
+        <v>756.353</v>
       </c>
       <c r="C259" t="inlineStr"/>
     </row>
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="B260" t="n">
-        <v>1521.645</v>
+        <v>756.453</v>
       </c>
       <c r="C260" t="inlineStr"/>
     </row>
@@ -2890,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="B261" t="n">
-        <v>2006.277</v>
+        <v>758.749</v>
       </c>
       <c r="C261" t="inlineStr"/>
     </row>
@@ -2899,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="B262" t="n">
-        <v>1990.959</v>
+        <v>1394.268</v>
       </c>
       <c r="C262" t="n">
-        <v>1990.959</v>
+        <v>1395.779</v>
       </c>
     </row>
     <row r="263">
@@ -2910,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="B263" t="n">
-        <v>2143.725</v>
+        <v>1404.315</v>
       </c>
       <c r="C263" t="inlineStr"/>
     </row>
@@ -2919,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="B264" t="n">
-        <v>1987.041</v>
+        <v>1396.456</v>
       </c>
       <c r="C264" t="inlineStr"/>
     </row>
@@ -2928,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="B265" t="n">
-        <v>1989.241</v>
+        <v>1395.779</v>
       </c>
       <c r="C265" t="inlineStr"/>
     </row>
@@ -2937,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="B266" t="n">
-        <v>2142.215</v>
+        <v>1392.138</v>
       </c>
       <c r="C266" t="inlineStr"/>
     </row>
@@ -2946,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="B267" t="n">
-        <v>2568.281</v>
+        <v>2795.202</v>
       </c>
       <c r="C267" t="n">
-        <v>2571.769</v>
+        <v>2758.857</v>
       </c>
     </row>
     <row r="268">
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="B268" t="n">
-        <v>2589.507</v>
+        <v>2722.623</v>
       </c>
       <c r="C268" t="inlineStr"/>
     </row>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="B269" t="n">
-        <v>2592.695</v>
+        <v>2790.252</v>
       </c>
       <c r="C269" t="inlineStr"/>
     </row>
@@ -2975,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="B270" t="n">
-        <v>2571.769</v>
+        <v>2758.857</v>
       </c>
       <c r="C270" t="inlineStr"/>
     </row>
@@ -2984,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="B271" t="n">
-        <v>2564.266</v>
+        <v>2711.588</v>
       </c>
       <c r="C271" t="inlineStr"/>
     </row>
@@ -2993,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="B272" t="n">
-        <v>4.544</v>
+        <v>0.579</v>
       </c>
       <c r="C272" t="n">
-        <v>4.584</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="273">
@@ -3004,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="B273" t="n">
-        <v>5.107</v>
+        <v>0.607</v>
       </c>
       <c r="C273" t="inlineStr"/>
     </row>
@@ -3013,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="B274" t="n">
-        <v>4.597</v>
+        <v>0.579</v>
       </c>
       <c r="C274" t="inlineStr"/>
     </row>
@@ -3022,7 +3022,7 @@
         <v>4</v>
       </c>
       <c r="B275" t="n">
-        <v>4.247</v>
+        <v>0.504</v>
       </c>
       <c r="C275" t="inlineStr"/>
     </row>
@@ -3031,7 +3031,7 @@
         <v>5</v>
       </c>
       <c r="B276" t="n">
-        <v>4.584</v>
+        <v>0.633</v>
       </c>
       <c r="C276" t="inlineStr"/>
     </row>
@@ -3040,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="B277" t="n">
-        <v>1.773</v>
+        <v>0.681</v>
       </c>
       <c r="C277" t="n">
-        <v>1.717</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="278">
@@ -3051,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="B278" t="n">
-        <v>1.705</v>
+        <v>0.68</v>
       </c>
       <c r="C278" t="inlineStr"/>
     </row>
@@ -3060,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="B279" t="n">
-        <v>1.717</v>
+        <v>0.652</v>
       </c>
       <c r="C279" t="inlineStr"/>
     </row>
@@ -3069,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="B280" t="n">
-        <v>1.688</v>
+        <v>0.707</v>
       </c>
       <c r="C280" t="inlineStr"/>
     </row>
@@ -3078,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="B281" t="n">
-        <v>1.795</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="C281" t="inlineStr"/>
     </row>
@@ -3087,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="B282" t="n">
-        <v>1.105</v>
+        <v>1.169</v>
       </c>
       <c r="C282" t="n">
-        <v>1.105</v>
+        <v>1.146</v>
       </c>
     </row>
     <row r="283">
@@ -3098,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="B283" t="n">
-        <v>1.109</v>
+        <v>1.146</v>
       </c>
       <c r="C283" t="inlineStr"/>
     </row>
@@ -3107,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="B284" t="n">
-        <v>1.059</v>
+        <v>1.096</v>
       </c>
       <c r="C284" t="inlineStr"/>
     </row>
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="B285" t="n">
-        <v>1.213</v>
+        <v>1.195</v>
       </c>
       <c r="C285" t="inlineStr"/>
     </row>
@@ -3125,7 +3125,7 @@
         <v>5</v>
       </c>
       <c r="B286" t="n">
-        <v>1.015</v>
+        <v>1.128</v>
       </c>
       <c r="C286" t="inlineStr"/>
     </row>
@@ -3134,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="B287" t="n">
-        <v>0.602</v>
+        <v>1.965</v>
       </c>
       <c r="C287" t="n">
-        <v>0.61</v>
+        <v>1.962</v>
       </c>
     </row>
     <row r="288">
@@ -3145,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="B288" t="n">
-        <v>0.61</v>
+        <v>1.929</v>
       </c>
       <c r="C288" t="inlineStr"/>
     </row>
@@ -3154,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="B289" t="n">
-        <v>0.625</v>
+        <v>1.941</v>
       </c>
       <c r="C289" t="inlineStr"/>
     </row>
@@ -3163,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="B290" t="n">
-        <v>0.612</v>
+        <v>2.043</v>
       </c>
       <c r="C290" t="inlineStr"/>
     </row>
@@ -3172,7 +3172,7 @@
         <v>5</v>
       </c>
       <c r="B291" t="n">
-        <v>0.608</v>
+        <v>1.962</v>
       </c>
       <c r="C291" t="inlineStr"/>
     </row>
@@ -3181,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="B292" t="n">
-        <v>0.605</v>
+        <v>3.357</v>
       </c>
       <c r="C292" t="n">
-        <v>0.599</v>
+        <v>3.357</v>
       </c>
     </row>
     <row r="293">
@@ -3192,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="B293" t="n">
-        <v>0.575</v>
+        <v>3.263</v>
       </c>
       <c r="C293" t="inlineStr"/>
     </row>
@@ -3201,7 +3201,7 @@
         <v>3</v>
       </c>
       <c r="B294" t="n">
-        <v>0.575</v>
+        <v>3.535</v>
       </c>
       <c r="C294" t="inlineStr"/>
     </row>
@@ -3210,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="B295" t="n">
-        <v>0.599</v>
+        <v>3.449</v>
       </c>
       <c r="C295" t="inlineStr"/>
     </row>
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="B296" t="n">
-        <v>0.601</v>
+        <v>3.265</v>
       </c>
       <c r="C296" t="inlineStr"/>
     </row>
@@ -3228,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="B297" t="n">
-        <v>0.8120000000000001</v>
+        <v>6.354</v>
       </c>
       <c r="C297" t="n">
-        <v>0.8120000000000001</v>
+        <v>6.354</v>
       </c>
     </row>
     <row r="298">
@@ -3239,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="B298" t="n">
-        <v>0.883</v>
+        <v>6.364</v>
       </c>
       <c r="C298" t="inlineStr"/>
     </row>
@@ -3248,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="B299" t="n">
-        <v>0.8</v>
+        <v>6.313</v>
       </c>
       <c r="C299" t="inlineStr"/>
     </row>
@@ -3257,7 +3257,7 @@
         <v>4</v>
       </c>
       <c r="B300" t="n">
-        <v>0.884</v>
+        <v>6.548</v>
       </c>
       <c r="C300" t="inlineStr"/>
     </row>
@@ -3266,7 +3266,7 @@
         <v>5</v>
       </c>
       <c r="B301" t="n">
-        <v>0.8110000000000001</v>
+        <v>6.337</v>
       </c>
       <c r="C301" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="B302" t="n">
-        <v>1.374</v>
+        <v>2.652</v>
       </c>
       <c r="C302" t="n">
-        <v>1.356</v>
+        <v>2.652</v>
       </c>
     </row>
     <row r="303">
@@ -3286,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="B303" t="n">
-        <v>1.352</v>
+        <v>2.655</v>
       </c>
       <c r="C303" t="inlineStr"/>
     </row>
@@ -3295,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="B304" t="n">
-        <v>1.378</v>
+        <v>2.687</v>
       </c>
       <c r="C304" t="inlineStr"/>
     </row>
@@ -3304,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="B305" t="n">
-        <v>1.356</v>
+        <v>2.643</v>
       </c>
       <c r="C305" t="inlineStr"/>
     </row>
@@ -3313,7 +3313,7 @@
         <v>5</v>
       </c>
       <c r="B306" t="n">
-        <v>1.356</v>
+        <v>2.619</v>
       </c>
       <c r="C306" t="inlineStr"/>
     </row>
@@ -3322,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="B307" t="n">
-        <v>2.547</v>
+        <v>4.41</v>
       </c>
       <c r="C307" t="n">
-        <v>2.553</v>
+        <v>4.465</v>
       </c>
     </row>
     <row r="308">
@@ -3333,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="B308" t="n">
-        <v>2.567</v>
+        <v>4.529</v>
       </c>
       <c r="C308" t="inlineStr"/>
     </row>
@@ -3342,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="B309" t="n">
-        <v>2.553</v>
+        <v>4.42</v>
       </c>
       <c r="C309" t="inlineStr"/>
     </row>
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="B310" t="n">
-        <v>2.548</v>
+        <v>4.492</v>
       </c>
       <c r="C310" t="inlineStr"/>
     </row>
@@ -3360,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="B311" t="n">
-        <v>2.577</v>
+        <v>4.465</v>
       </c>
       <c r="C311" t="inlineStr"/>
     </row>
@@ -3369,10 +3369,10 @@
         <v>1</v>
       </c>
       <c r="B312" t="n">
-        <v>4.967</v>
+        <v>7.992</v>
       </c>
       <c r="C312" t="n">
-        <v>4.979</v>
+        <v>7.992</v>
       </c>
     </row>
     <row r="313">
@@ -3380,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="B313" t="n">
-        <v>5.014</v>
+        <v>7.922</v>
       </c>
       <c r="C313" t="inlineStr"/>
     </row>
@@ -3389,7 +3389,7 @@
         <v>3</v>
       </c>
       <c r="B314" t="n">
-        <v>4.979</v>
+        <v>7.966</v>
       </c>
       <c r="C314" t="inlineStr"/>
     </row>
@@ -3398,7 +3398,7 @@
         <v>4</v>
       </c>
       <c r="B315" t="n">
-        <v>5.002</v>
+        <v>8.07</v>
       </c>
       <c r="C315" t="inlineStr"/>
     </row>
@@ -3407,7 +3407,7 @@
         <v>5</v>
       </c>
       <c r="B316" t="n">
-        <v>4.96</v>
+        <v>8.019</v>
       </c>
       <c r="C316" t="inlineStr"/>
     </row>
@@ -3416,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="B317" t="n">
-        <v>8.548</v>
+        <v>14.365</v>
       </c>
       <c r="C317" t="n">
-        <v>8.548</v>
+        <v>14.429</v>
       </c>
     </row>
     <row r="318">
@@ -3427,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="B318" t="n">
-        <v>8.316000000000001</v>
+        <v>13.84</v>
       </c>
       <c r="C318" t="inlineStr"/>
     </row>
@@ -3436,7 +3436,7 @@
         <v>3</v>
       </c>
       <c r="B319" t="n">
-        <v>8.618</v>
+        <v>14.655</v>
       </c>
       <c r="C319" t="inlineStr"/>
     </row>
@@ -3445,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="B320" t="n">
-        <v>8.536</v>
+        <v>14.429</v>
       </c>
       <c r="C320" t="inlineStr"/>
     </row>
@@ -3454,7 +3454,7 @@
         <v>5</v>
       </c>
       <c r="B321" t="n">
-        <v>8.663</v>
+        <v>14.663</v>
       </c>
       <c r="C321" t="inlineStr"/>
     </row>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="B322" t="n">
-        <v>3.852</v>
+        <v>26.76</v>
       </c>
       <c r="C322" t="n">
-        <v>3.907</v>
+        <v>26.561</v>
       </c>
     </row>
     <row r="323">
@@ -3474,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="B323" t="n">
-        <v>3.801</v>
+        <v>26.561</v>
       </c>
       <c r="C323" t="inlineStr"/>
     </row>
@@ -3483,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="B324" t="n">
-        <v>3.907</v>
+        <v>26.303</v>
       </c>
       <c r="C324" t="inlineStr"/>
     </row>
@@ -3492,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="B325" t="n">
-        <v>4.179</v>
+        <v>26.461</v>
       </c>
       <c r="C325" t="inlineStr"/>
     </row>
@@ -3501,7 +3501,7 @@
         <v>5</v>
       </c>
       <c r="B326" t="n">
-        <v>4.175</v>
+        <v>26.565</v>
       </c>
       <c r="C326" t="inlineStr"/>
     </row>
@@ -3510,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="B327" t="n">
-        <v>2.265</v>
+        <v>65.758</v>
       </c>
       <c r="C327" t="n">
-        <v>2.265</v>
+        <v>65.758</v>
       </c>
     </row>
     <row r="328">
@@ -3521,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="B328" t="n">
-        <v>2.205</v>
+        <v>66.205</v>
       </c>
       <c r="C328" t="inlineStr"/>
     </row>
@@ -3530,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="B329" t="n">
-        <v>2.201</v>
+        <v>65.336</v>
       </c>
       <c r="C329" t="inlineStr"/>
     </row>
@@ -3539,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="n">
-        <v>2.439</v>
+        <v>66.027</v>
       </c>
       <c r="C330" t="inlineStr"/>
     </row>
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
       <c r="B331" t="n">
-        <v>2.317</v>
+        <v>65.646</v>
       </c>
       <c r="C331" t="inlineStr"/>
     </row>
@@ -3557,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="B332" t="n">
-        <v>2.137</v>
+        <v>385.162</v>
       </c>
       <c r="C332" t="n">
-        <v>2.137</v>
+        <v>372.518</v>
       </c>
     </row>
     <row r="333">
@@ -3568,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="B333" t="n">
-        <v>2.263</v>
+        <v>372.472</v>
       </c>
       <c r="C333" t="inlineStr"/>
     </row>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="B334" t="n">
-        <v>2.096</v>
+        <v>372.518</v>
       </c>
       <c r="C334" t="inlineStr"/>
     </row>
@@ -3586,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="B335" t="n">
-        <v>2.138</v>
+        <v>373.033</v>
       </c>
       <c r="C335" t="inlineStr"/>
     </row>
@@ -3595,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="B336" t="n">
-        <v>1.986</v>
+        <v>364.143</v>
       </c>
       <c r="C336" t="inlineStr"/>
     </row>
@@ -3604,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="B337" t="n">
-        <v>2.797</v>
+        <v>368.482</v>
       </c>
       <c r="C337" t="n">
-        <v>2.801</v>
+        <v>366.061</v>
       </c>
     </row>
     <row r="338">
@@ -3615,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="n">
-        <v>2.801</v>
+        <v>365.747</v>
       </c>
       <c r="C338" t="inlineStr"/>
     </row>
@@ -3624,7 +3624,7 @@
         <v>3</v>
       </c>
       <c r="B339" t="n">
-        <v>3.173</v>
+        <v>358.927</v>
       </c>
       <c r="C339" t="inlineStr"/>
     </row>
@@ -3633,7 +3633,7 @@
         <v>4</v>
       </c>
       <c r="B340" t="n">
-        <v>2.771</v>
+        <v>366.061</v>
       </c>
       <c r="C340" t="inlineStr"/>
     </row>
@@ -3642,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="B341" t="n">
-        <v>3.064</v>
+        <v>366.513</v>
       </c>
       <c r="C341" t="inlineStr"/>
     </row>
@@ -3651,10 +3651,10 @@
         <v>1</v>
       </c>
       <c r="B342" t="n">
-        <v>4.821</v>
+        <v>485.476</v>
       </c>
       <c r="C342" t="n">
-        <v>4.778</v>
+        <v>485.476</v>
       </c>
     </row>
     <row r="343">
@@ -3662,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="B343" t="n">
-        <v>4.805</v>
+        <v>483.196</v>
       </c>
       <c r="C343" t="inlineStr"/>
     </row>
@@ -3671,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="B344" t="n">
-        <v>4.7</v>
+        <v>485.662</v>
       </c>
       <c r="C344" t="inlineStr"/>
     </row>
@@ -3680,7 +3680,7 @@
         <v>4</v>
       </c>
       <c r="B345" t="n">
-        <v>4.778</v>
+        <v>484.152</v>
       </c>
       <c r="C345" t="inlineStr"/>
     </row>
@@ -3689,7 +3689,7 @@
         <v>5</v>
       </c>
       <c r="B346" t="n">
-        <v>4.731</v>
+        <v>486.776</v>
       </c>
       <c r="C346" t="inlineStr"/>
     </row>
@@ -3698,10 +3698,10 @@
         <v>1</v>
       </c>
       <c r="B347" t="n">
-        <v>8.651999999999999</v>
+        <v>852.241</v>
       </c>
       <c r="C347" t="n">
-        <v>8.667</v>
+        <v>849.308</v>
       </c>
     </row>
     <row r="348">
@@ -3709,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="B348" t="n">
-        <v>8.685</v>
+        <v>840.612</v>
       </c>
       <c r="C348" t="inlineStr"/>
     </row>
@@ -3718,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="B349" t="n">
-        <v>8.667</v>
+        <v>853.1660000000001</v>
       </c>
       <c r="C349" t="inlineStr"/>
     </row>
@@ -3727,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="B350" t="n">
-        <v>8.678000000000001</v>
+        <v>849.308</v>
       </c>
       <c r="C350" t="inlineStr"/>
     </row>
@@ -3736,7 +3736,7 @@
         <v>5</v>
       </c>
       <c r="B351" t="n">
-        <v>8.653</v>
+        <v>848.16</v>
       </c>
       <c r="C351" t="inlineStr"/>
     </row>
@@ -3745,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>19.871</v>
+        <v>1575.88</v>
       </c>
       <c r="C352" t="n">
-        <v>19.941</v>
+        <v>1572.178</v>
       </c>
     </row>
     <row r="353">
@@ -3756,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="n">
-        <v>20.19</v>
+        <v>1561.087</v>
       </c>
       <c r="C353" t="inlineStr"/>
     </row>
@@ -3765,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="B354" t="n">
-        <v>19.941</v>
+        <v>1568.389</v>
       </c>
       <c r="C354" t="inlineStr"/>
     </row>
@@ -3774,7 +3774,7 @@
         <v>4</v>
       </c>
       <c r="B355" t="n">
-        <v>19.883</v>
+        <v>1572.319</v>
       </c>
       <c r="C355" t="inlineStr"/>
     </row>
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="B356" t="n">
-        <v>20.007</v>
+        <v>1572.178</v>
       </c>
       <c r="C356" t="inlineStr"/>
     </row>
@@ -3792,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="B357" t="n">
-        <v>43.589</v>
+        <v>3142.712</v>
       </c>
       <c r="C357" t="n">
-        <v>43.589</v>
+        <v>3111.069</v>
       </c>
     </row>
     <row r="358">
@@ -3803,7 +3803,7 @@
         <v>2</v>
       </c>
       <c r="B358" t="n">
-        <v>43.458</v>
+        <v>3132.072</v>
       </c>
       <c r="C358" t="inlineStr"/>
     </row>
@@ -3812,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="B359" t="n">
-        <v>43.594</v>
+        <v>3101.394</v>
       </c>
       <c r="C359" t="inlineStr"/>
     </row>
@@ -3821,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="n">
-        <v>43.768</v>
+        <v>3091.861</v>
       </c>
       <c r="C360" t="inlineStr"/>
     </row>
@@ -3830,1701 +3830,9 @@
         <v>5</v>
       </c>
       <c r="B361" t="n">
-        <v>43.271</v>
+        <v>3111.069</v>
       </c>
       <c r="C361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>1</v>
-      </c>
-      <c r="B362" t="n">
-        <v>434.021</v>
-      </c>
-      <c r="C362" t="n">
-        <v>325.842</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>2</v>
-      </c>
-      <c r="B363" t="n">
-        <v>667.895</v>
-      </c>
-      <c r="C363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>3</v>
-      </c>
-      <c r="B364" t="n">
-        <v>177.905</v>
-      </c>
-      <c r="C364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>4</v>
-      </c>
-      <c r="B365" t="n">
-        <v>325.842</v>
-      </c>
-      <c r="C365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>5</v>
-      </c>
-      <c r="B366" t="n">
-        <v>257.985</v>
-      </c>
-      <c r="C366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>1</v>
-      </c>
-      <c r="B367" t="n">
-        <v>67.667</v>
-      </c>
-      <c r="C367" t="n">
-        <v>64.523</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>2</v>
-      </c>
-      <c r="B368" t="n">
-        <v>65.661</v>
-      </c>
-      <c r="C368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>3</v>
-      </c>
-      <c r="B369" t="n">
-        <v>60.515</v>
-      </c>
-      <c r="C369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>4</v>
-      </c>
-      <c r="B370" t="n">
-        <v>64.523</v>
-      </c>
-      <c r="C370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>5</v>
-      </c>
-      <c r="B371" t="n">
-        <v>62.122</v>
-      </c>
-      <c r="C371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>1</v>
-      </c>
-      <c r="B372" t="n">
-        <v>63.871</v>
-      </c>
-      <c r="C372" t="n">
-        <v>63.871</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>2</v>
-      </c>
-      <c r="B373" t="n">
-        <v>70.94499999999999</v>
-      </c>
-      <c r="C373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>3</v>
-      </c>
-      <c r="B374" t="n">
-        <v>62.568</v>
-      </c>
-      <c r="C374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>4</v>
-      </c>
-      <c r="B375" t="n">
-        <v>69.699</v>
-      </c>
-      <c r="C375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>5</v>
-      </c>
-      <c r="B376" t="n">
-        <v>61.085</v>
-      </c>
-      <c r="C376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>1</v>
-      </c>
-      <c r="B377" t="n">
-        <v>217.725</v>
-      </c>
-      <c r="C377" t="n">
-        <v>213.718</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>2</v>
-      </c>
-      <c r="B378" t="n">
-        <v>214.889</v>
-      </c>
-      <c r="C378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>3</v>
-      </c>
-      <c r="B379" t="n">
-        <v>190.985</v>
-      </c>
-      <c r="C379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>4</v>
-      </c>
-      <c r="B380" t="n">
-        <v>213.718</v>
-      </c>
-      <c r="C380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>5</v>
-      </c>
-      <c r="B381" t="n">
-        <v>193.157</v>
-      </c>
-      <c r="C381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>1</v>
-      </c>
-      <c r="B382" t="n">
-        <v>338.985</v>
-      </c>
-      <c r="C382" t="n">
-        <v>354.508</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>2</v>
-      </c>
-      <c r="B383" t="n">
-        <v>322.029</v>
-      </c>
-      <c r="C383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>3</v>
-      </c>
-      <c r="B384" t="n">
-        <v>376.858</v>
-      </c>
-      <c r="C384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>4</v>
-      </c>
-      <c r="B385" t="n">
-        <v>364.462</v>
-      </c>
-      <c r="C385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>5</v>
-      </c>
-      <c r="B386" t="n">
-        <v>354.508</v>
-      </c>
-      <c r="C386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>1</v>
-      </c>
-      <c r="B387" t="n">
-        <v>495.431</v>
-      </c>
-      <c r="C387" t="n">
-        <v>497.615</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>2</v>
-      </c>
-      <c r="B388" t="n">
-        <v>574.449</v>
-      </c>
-      <c r="C388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>3</v>
-      </c>
-      <c r="B389" t="n">
-        <v>477.387</v>
-      </c>
-      <c r="C389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>4</v>
-      </c>
-      <c r="B390" t="n">
-        <v>497.615</v>
-      </c>
-      <c r="C390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>5</v>
-      </c>
-      <c r="B391" t="n">
-        <v>685.827</v>
-      </c>
-      <c r="C391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>1</v>
-      </c>
-      <c r="B392" t="n">
-        <v>851.297</v>
-      </c>
-      <c r="C392" t="n">
-        <v>1018.895</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>2</v>
-      </c>
-      <c r="B393" t="n">
-        <v>1060.9</v>
-      </c>
-      <c r="C393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>3</v>
-      </c>
-      <c r="B394" t="n">
-        <v>1071.288</v>
-      </c>
-      <c r="C394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>4</v>
-      </c>
-      <c r="B395" t="n">
-        <v>1018.895</v>
-      </c>
-      <c r="C395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>5</v>
-      </c>
-      <c r="B396" t="n">
-        <v>775.818</v>
-      </c>
-      <c r="C396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" t="n">
-        <v>1</v>
-      </c>
-      <c r="B397" t="n">
-        <v>1099.986</v>
-      </c>
-      <c r="C397" t="n">
-        <v>1038.731</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="n">
-        <v>2</v>
-      </c>
-      <c r="B398" t="n">
-        <v>1037.63</v>
-      </c>
-      <c r="C398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>3</v>
-      </c>
-      <c r="B399" t="n">
-        <v>1038.731</v>
-      </c>
-      <c r="C399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" t="n">
-        <v>4</v>
-      </c>
-      <c r="B400" t="n">
-        <v>1038.211</v>
-      </c>
-      <c r="C400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>5</v>
-      </c>
-      <c r="B401" t="n">
-        <v>1039.643</v>
-      </c>
-      <c r="C401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" t="n">
-        <v>1</v>
-      </c>
-      <c r="B402" t="n">
-        <v>1541.682</v>
-      </c>
-      <c r="C402" t="n">
-        <v>1541.682</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="n">
-        <v>2</v>
-      </c>
-      <c r="B403" t="n">
-        <v>1544.805</v>
-      </c>
-      <c r="C403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>3</v>
-      </c>
-      <c r="B404" t="n">
-        <v>1530.779</v>
-      </c>
-      <c r="C404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" t="n">
-        <v>4</v>
-      </c>
-      <c r="B405" t="n">
-        <v>1530.369</v>
-      </c>
-      <c r="C405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" t="n">
-        <v>5</v>
-      </c>
-      <c r="B406" t="n">
-        <v>1548.088</v>
-      </c>
-      <c r="C406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>1</v>
-      </c>
-      <c r="B407" t="n">
-        <v>2.802</v>
-      </c>
-      <c r="C407" t="n">
-        <v>2.802</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>2</v>
-      </c>
-      <c r="B408" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>3</v>
-      </c>
-      <c r="B409" t="n">
-        <v>3.413</v>
-      </c>
-      <c r="C409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>4</v>
-      </c>
-      <c r="B410" t="n">
-        <v>3.101</v>
-      </c>
-      <c r="C410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>5</v>
-      </c>
-      <c r="B411" t="n">
-        <v>2.787</v>
-      </c>
-      <c r="C411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" t="n">
-        <v>1</v>
-      </c>
-      <c r="B412" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="C412" t="n">
-        <v>1.213</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="n">
-        <v>2</v>
-      </c>
-      <c r="B413" t="n">
-        <v>1.223</v>
-      </c>
-      <c r="C413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" t="n">
-        <v>3</v>
-      </c>
-      <c r="B414" t="n">
-        <v>1.122</v>
-      </c>
-      <c r="C414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" t="n">
-        <v>4</v>
-      </c>
-      <c r="B415" t="n">
-        <v>1.112</v>
-      </c>
-      <c r="C415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" t="n">
-        <v>5</v>
-      </c>
-      <c r="B416" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="C416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" t="n">
-        <v>1</v>
-      </c>
-      <c r="B417" t="n">
-        <v>0.771</v>
-      </c>
-      <c r="C417" t="n">
-        <v>0.733</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="n">
-        <v>2</v>
-      </c>
-      <c r="B418" t="n">
-        <v>0.733</v>
-      </c>
-      <c r="C418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" t="n">
-        <v>3</v>
-      </c>
-      <c r="B419" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="C419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" t="n">
-        <v>4</v>
-      </c>
-      <c r="B420" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="C420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" t="n">
-        <v>5</v>
-      </c>
-      <c r="B421" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="C421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" t="n">
-        <v>1</v>
-      </c>
-      <c r="B422" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="C422" t="n">
-        <v>0.483</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="n">
-        <v>2</v>
-      </c>
-      <c r="B423" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" t="n">
-        <v>3</v>
-      </c>
-      <c r="B424" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="C424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" t="n">
-        <v>4</v>
-      </c>
-      <c r="B425" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="C425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" t="n">
-        <v>5</v>
-      </c>
-      <c r="B426" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="C426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" t="n">
-        <v>1</v>
-      </c>
-      <c r="B427" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="C427" t="n">
-        <v>0.526</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="n">
-        <v>2</v>
-      </c>
-      <c r="B428" t="n">
-        <v>0.524</v>
-      </c>
-      <c r="C428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" t="n">
-        <v>3</v>
-      </c>
-      <c r="B429" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="C429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" t="n">
-        <v>4</v>
-      </c>
-      <c r="B430" t="n">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="C430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" t="n">
-        <v>5</v>
-      </c>
-      <c r="B431" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="C431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" t="n">
-        <v>1</v>
-      </c>
-      <c r="B432" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="C432" t="n">
-        <v>0.827</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="n">
-        <v>2</v>
-      </c>
-      <c r="B433" t="n">
-        <v>0.871</v>
-      </c>
-      <c r="C433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" t="n">
-        <v>3</v>
-      </c>
-      <c r="B434" t="n">
-        <v>0.827</v>
-      </c>
-      <c r="C434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" t="n">
-        <v>4</v>
-      </c>
-      <c r="B435" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="C435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" t="n">
-        <v>5</v>
-      </c>
-      <c r="B436" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="C436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" t="n">
-        <v>1</v>
-      </c>
-      <c r="B437" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="C437" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="n">
-        <v>2</v>
-      </c>
-      <c r="B438" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="C438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" t="n">
-        <v>3</v>
-      </c>
-      <c r="B439" t="n">
-        <v>1.474</v>
-      </c>
-      <c r="C439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" t="n">
-        <v>4</v>
-      </c>
-      <c r="B440" t="n">
-        <v>1.469</v>
-      </c>
-      <c r="C440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" t="n">
-        <v>5</v>
-      </c>
-      <c r="B441" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="C441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" t="n">
-        <v>1</v>
-      </c>
-      <c r="B442" t="n">
-        <v>2.801</v>
-      </c>
-      <c r="C442" t="n">
-        <v>2.808</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="n">
-        <v>2</v>
-      </c>
-      <c r="B443" t="n">
-        <v>2.802</v>
-      </c>
-      <c r="C443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" t="n">
-        <v>3</v>
-      </c>
-      <c r="B444" t="n">
-        <v>2.811</v>
-      </c>
-      <c r="C444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" t="n">
-        <v>4</v>
-      </c>
-      <c r="B445" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="C445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" t="n">
-        <v>5</v>
-      </c>
-      <c r="B446" t="n">
-        <v>2.808</v>
-      </c>
-      <c r="C446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" t="n">
-        <v>1</v>
-      </c>
-      <c r="B447" t="n">
-        <v>5.572</v>
-      </c>
-      <c r="C447" t="n">
-        <v>5.575</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="n">
-        <v>2</v>
-      </c>
-      <c r="B448" t="n">
-        <v>5.619</v>
-      </c>
-      <c r="C448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" t="n">
-        <v>3</v>
-      </c>
-      <c r="B449" t="n">
-        <v>5.568</v>
-      </c>
-      <c r="C449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" t="n">
-        <v>4</v>
-      </c>
-      <c r="B450" t="n">
-        <v>5.575</v>
-      </c>
-      <c r="C450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" t="n">
-        <v>5</v>
-      </c>
-      <c r="B451" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="C451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" t="n">
-        <v>1</v>
-      </c>
-      <c r="B452" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C452" t="n">
-        <v>8.068</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="n">
-        <v>2</v>
-      </c>
-      <c r="B453" t="n">
-        <v>8.651</v>
-      </c>
-      <c r="C453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" t="n">
-        <v>3</v>
-      </c>
-      <c r="B454" t="n">
-        <v>9.311999999999999</v>
-      </c>
-      <c r="C454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" t="n">
-        <v>4</v>
-      </c>
-      <c r="B455" t="n">
-        <v>8.068</v>
-      </c>
-      <c r="C455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" t="n">
-        <v>5</v>
-      </c>
-      <c r="B456" t="n">
-        <v>8.032999999999999</v>
-      </c>
-      <c r="C456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" t="n">
-        <v>1</v>
-      </c>
-      <c r="B457" t="n">
-        <v>4.043</v>
-      </c>
-      <c r="C457" t="n">
-        <v>3.589</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="n">
-        <v>2</v>
-      </c>
-      <c r="B458" t="n">
-        <v>3.486</v>
-      </c>
-      <c r="C458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>3</v>
-      </c>
-      <c r="B459" t="n">
-        <v>3.354</v>
-      </c>
-      <c r="C459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
-        <v>4</v>
-      </c>
-      <c r="B460" t="n">
-        <v>3.592</v>
-      </c>
-      <c r="C460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>5</v>
-      </c>
-      <c r="B461" t="n">
-        <v>3.589</v>
-      </c>
-      <c r="C461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>1</v>
-      </c>
-      <c r="B462" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="C462" t="n">
-        <v>2.117</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="n">
-        <v>2</v>
-      </c>
-      <c r="B463" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="C463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" t="n">
-        <v>3</v>
-      </c>
-      <c r="B464" t="n">
-        <v>2.104</v>
-      </c>
-      <c r="C464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" t="n">
-        <v>4</v>
-      </c>
-      <c r="B465" t="n">
-        <v>2.166</v>
-      </c>
-      <c r="C465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" t="n">
-        <v>5</v>
-      </c>
-      <c r="B466" t="n">
-        <v>2.117</v>
-      </c>
-      <c r="C466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" t="n">
-        <v>1</v>
-      </c>
-      <c r="B467" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C467" t="n">
-        <v>2.323</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="n">
-        <v>2</v>
-      </c>
-      <c r="B468" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" t="n">
-        <v>3</v>
-      </c>
-      <c r="B469" t="n">
-        <v>2.323</v>
-      </c>
-      <c r="C469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" t="n">
-        <v>4</v>
-      </c>
-      <c r="B470" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="C470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" t="n">
-        <v>5</v>
-      </c>
-      <c r="B471" t="n">
-        <v>2.411</v>
-      </c>
-      <c r="C471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" t="n">
-        <v>1</v>
-      </c>
-      <c r="B472" t="n">
-        <v>3.538</v>
-      </c>
-      <c r="C472" t="n">
-        <v>3.528</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="n">
-        <v>2</v>
-      </c>
-      <c r="B473" t="n">
-        <v>3.573</v>
-      </c>
-      <c r="C473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" t="n">
-        <v>3</v>
-      </c>
-      <c r="B474" t="n">
-        <v>3.524</v>
-      </c>
-      <c r="C474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" t="n">
-        <v>4</v>
-      </c>
-      <c r="B475" t="n">
-        <v>3.491</v>
-      </c>
-      <c r="C475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" t="n">
-        <v>5</v>
-      </c>
-      <c r="B476" t="n">
-        <v>3.528</v>
-      </c>
-      <c r="C476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" t="n">
-        <v>1</v>
-      </c>
-      <c r="B477" t="n">
-        <v>6.474</v>
-      </c>
-      <c r="C477" t="n">
-        <v>6.474</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="n">
-        <v>2</v>
-      </c>
-      <c r="B478" t="n">
-        <v>6.484</v>
-      </c>
-      <c r="C478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" t="n">
-        <v>3</v>
-      </c>
-      <c r="B479" t="n">
-        <v>6.307</v>
-      </c>
-      <c r="C479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" t="n">
-        <v>4</v>
-      </c>
-      <c r="B480" t="n">
-        <v>6.431</v>
-      </c>
-      <c r="C480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" t="n">
-        <v>5</v>
-      </c>
-      <c r="B481" t="n">
-        <v>6.499</v>
-      </c>
-      <c r="C481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" t="n">
-        <v>1</v>
-      </c>
-      <c r="B482" t="n">
-        <v>12.234</v>
-      </c>
-      <c r="C482" t="n">
-        <v>12.234</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="n">
-        <v>2</v>
-      </c>
-      <c r="B483" t="n">
-        <v>12.243</v>
-      </c>
-      <c r="C483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
-        <v>3</v>
-      </c>
-      <c r="B484" t="n">
-        <v>12.216</v>
-      </c>
-      <c r="C484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
-        <v>4</v>
-      </c>
-      <c r="B485" t="n">
-        <v>12.278</v>
-      </c>
-      <c r="C485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
-        <v>5</v>
-      </c>
-      <c r="B486" t="n">
-        <v>12.209</v>
-      </c>
-      <c r="C486" t="inlineStr"/>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>1</v>
-      </c>
-      <c r="B487" t="n">
-        <v>27.995</v>
-      </c>
-      <c r="C487" t="n">
-        <v>27.728</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
-        <v>2</v>
-      </c>
-      <c r="B488" t="n">
-        <v>27.728</v>
-      </c>
-      <c r="C488" t="inlineStr"/>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
-        <v>3</v>
-      </c>
-      <c r="B489" t="n">
-        <v>27.695</v>
-      </c>
-      <c r="C489" t="inlineStr"/>
-    </row>
-    <row r="490">
-      <c r="A490" t="n">
-        <v>4</v>
-      </c>
-      <c r="B490" t="n">
-        <v>27.999</v>
-      </c>
-      <c r="C490" t="inlineStr"/>
-    </row>
-    <row r="491">
-      <c r="A491" t="n">
-        <v>5</v>
-      </c>
-      <c r="B491" t="n">
-        <v>27.71</v>
-      </c>
-      <c r="C491" t="inlineStr"/>
-    </row>
-    <row r="492">
-      <c r="A492" t="n">
-        <v>1</v>
-      </c>
-      <c r="B492" t="n">
-        <v>54.571</v>
-      </c>
-      <c r="C492" t="n">
-        <v>54.582</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="n">
-        <v>2</v>
-      </c>
-      <c r="B493" t="n">
-        <v>54.623</v>
-      </c>
-      <c r="C493" t="inlineStr"/>
-    </row>
-    <row r="494">
-      <c r="A494" t="n">
-        <v>3</v>
-      </c>
-      <c r="B494" t="n">
-        <v>54.582</v>
-      </c>
-      <c r="C494" t="inlineStr"/>
-    </row>
-    <row r="495">
-      <c r="A495" t="n">
-        <v>4</v>
-      </c>
-      <c r="B495" t="n">
-        <v>54.607</v>
-      </c>
-      <c r="C495" t="inlineStr"/>
-    </row>
-    <row r="496">
-      <c r="A496" t="n">
-        <v>5</v>
-      </c>
-      <c r="B496" t="n">
-        <v>54.522</v>
-      </c>
-      <c r="C496" t="inlineStr"/>
-    </row>
-    <row r="497">
-      <c r="A497" t="n">
-        <v>1</v>
-      </c>
-      <c r="B497" t="n">
-        <v>306.394</v>
-      </c>
-      <c r="C497" t="n">
-        <v>513.605</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="n">
-        <v>2</v>
-      </c>
-      <c r="B498" t="n">
-        <v>513.605</v>
-      </c>
-      <c r="C498" t="inlineStr"/>
-    </row>
-    <row r="499">
-      <c r="A499" t="n">
-        <v>3</v>
-      </c>
-      <c r="B499" t="n">
-        <v>557.859</v>
-      </c>
-      <c r="C499" t="inlineStr"/>
-    </row>
-    <row r="500">
-      <c r="A500" t="n">
-        <v>4</v>
-      </c>
-      <c r="B500" t="n">
-        <v>515.327</v>
-      </c>
-      <c r="C500" t="inlineStr"/>
-    </row>
-    <row r="501">
-      <c r="A501" t="n">
-        <v>5</v>
-      </c>
-      <c r="B501" t="n">
-        <v>450.13</v>
-      </c>
-      <c r="C501" t="inlineStr"/>
-    </row>
-    <row r="502">
-      <c r="A502" t="n">
-        <v>1</v>
-      </c>
-      <c r="B502" t="n">
-        <v>114.426</v>
-      </c>
-      <c r="C502" t="n">
-        <v>112.908</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="n">
-        <v>2</v>
-      </c>
-      <c r="B503" t="n">
-        <v>124.306</v>
-      </c>
-      <c r="C503" t="inlineStr"/>
-    </row>
-    <row r="504">
-      <c r="A504" t="n">
-        <v>3</v>
-      </c>
-      <c r="B504" t="n">
-        <v>112.908</v>
-      </c>
-      <c r="C504" t="inlineStr"/>
-    </row>
-    <row r="505">
-      <c r="A505" t="n">
-        <v>4</v>
-      </c>
-      <c r="B505" t="n">
-        <v>110.887</v>
-      </c>
-      <c r="C505" t="inlineStr"/>
-    </row>
-    <row r="506">
-      <c r="A506" t="n">
-        <v>5</v>
-      </c>
-      <c r="B506" t="n">
-        <v>111.226</v>
-      </c>
-      <c r="C506" t="inlineStr"/>
-    </row>
-    <row r="507">
-      <c r="A507" t="n">
-        <v>1</v>
-      </c>
-      <c r="B507" t="n">
-        <v>132.772</v>
-      </c>
-      <c r="C507" t="n">
-        <v>108.528</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="n">
-        <v>2</v>
-      </c>
-      <c r="B508" t="n">
-        <v>117.761</v>
-      </c>
-      <c r="C508" t="inlineStr"/>
-    </row>
-    <row r="509">
-      <c r="A509" t="n">
-        <v>3</v>
-      </c>
-      <c r="B509" t="n">
-        <v>107.284</v>
-      </c>
-      <c r="C509" t="inlineStr"/>
-    </row>
-    <row r="510">
-      <c r="A510" t="n">
-        <v>4</v>
-      </c>
-      <c r="B510" t="n">
-        <v>106.148</v>
-      </c>
-      <c r="C510" t="inlineStr"/>
-    </row>
-    <row r="511">
-      <c r="A511" t="n">
-        <v>5</v>
-      </c>
-      <c r="B511" t="n">
-        <v>108.528</v>
-      </c>
-      <c r="C511" t="inlineStr"/>
-    </row>
-    <row r="512">
-      <c r="A512" t="n">
-        <v>1</v>
-      </c>
-      <c r="B512" t="n">
-        <v>256.729</v>
-      </c>
-      <c r="C512" t="n">
-        <v>256.729</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="n">
-        <v>2</v>
-      </c>
-      <c r="B513" t="n">
-        <v>260.883</v>
-      </c>
-      <c r="C513" t="inlineStr"/>
-    </row>
-    <row r="514">
-      <c r="A514" t="n">
-        <v>3</v>
-      </c>
-      <c r="B514" t="n">
-        <v>237.912</v>
-      </c>
-      <c r="C514" t="inlineStr"/>
-    </row>
-    <row r="515">
-      <c r="A515" t="n">
-        <v>4</v>
-      </c>
-      <c r="B515" t="n">
-        <v>280.096</v>
-      </c>
-      <c r="C515" t="inlineStr"/>
-    </row>
-    <row r="516">
-      <c r="A516" t="n">
-        <v>5</v>
-      </c>
-      <c r="B516" t="n">
-        <v>239.074</v>
-      </c>
-      <c r="C516" t="inlineStr"/>
-    </row>
-    <row r="517">
-      <c r="A517" t="n">
-        <v>1</v>
-      </c>
-      <c r="B517" t="n">
-        <v>290.514</v>
-      </c>
-      <c r="C517" t="n">
-        <v>397.342</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="n">
-        <v>2</v>
-      </c>
-      <c r="B518" t="n">
-        <v>424.299</v>
-      </c>
-      <c r="C518" t="inlineStr"/>
-    </row>
-    <row r="519">
-      <c r="A519" t="n">
-        <v>3</v>
-      </c>
-      <c r="B519" t="n">
-        <v>459.871</v>
-      </c>
-      <c r="C519" t="inlineStr"/>
-    </row>
-    <row r="520">
-      <c r="A520" t="n">
-        <v>4</v>
-      </c>
-      <c r="B520" t="n">
-        <v>397.342</v>
-      </c>
-      <c r="C520" t="inlineStr"/>
-    </row>
-    <row r="521">
-      <c r="A521" t="n">
-        <v>5</v>
-      </c>
-      <c r="B521" t="n">
-        <v>393.114</v>
-      </c>
-      <c r="C521" t="inlineStr"/>
-    </row>
-    <row r="522">
-      <c r="A522" t="n">
-        <v>1</v>
-      </c>
-      <c r="B522" t="n">
-        <v>453.696</v>
-      </c>
-      <c r="C522" t="n">
-        <v>453.696</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="n">
-        <v>2</v>
-      </c>
-      <c r="B523" t="n">
-        <v>577.932</v>
-      </c>
-      <c r="C523" t="inlineStr"/>
-    </row>
-    <row r="524">
-      <c r="A524" t="n">
-        <v>3</v>
-      </c>
-      <c r="B524" t="n">
-        <v>451.281</v>
-      </c>
-      <c r="C524" t="inlineStr"/>
-    </row>
-    <row r="525">
-      <c r="A525" t="n">
-        <v>4</v>
-      </c>
-      <c r="B525" t="n">
-        <v>436.402</v>
-      </c>
-      <c r="C525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" t="n">
-        <v>5</v>
-      </c>
-      <c r="B526" t="n">
-        <v>551.23</v>
-      </c>
-      <c r="C526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" t="n">
-        <v>1</v>
-      </c>
-      <c r="B527" t="n">
-        <v>1093.764</v>
-      </c>
-      <c r="C527" t="n">
-        <v>1092.101</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="n">
-        <v>2</v>
-      </c>
-      <c r="B528" t="n">
-        <v>836.378</v>
-      </c>
-      <c r="C528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" t="n">
-        <v>3</v>
-      </c>
-      <c r="B529" t="n">
-        <v>834.679</v>
-      </c>
-      <c r="C529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" t="n">
-        <v>4</v>
-      </c>
-      <c r="B530" t="n">
-        <v>1092.101</v>
-      </c>
-      <c r="C530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" t="n">
-        <v>5</v>
-      </c>
-      <c r="B531" t="n">
-        <v>1092.272</v>
-      </c>
-      <c r="C531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" t="n">
-        <v>1</v>
-      </c>
-      <c r="B532" t="n">
-        <v>1105.598</v>
-      </c>
-      <c r="C532" t="n">
-        <v>1106.817</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="n">
-        <v>2</v>
-      </c>
-      <c r="B533" t="n">
-        <v>1181.943</v>
-      </c>
-      <c r="C533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" t="n">
-        <v>3</v>
-      </c>
-      <c r="B534" t="n">
-        <v>1105.721</v>
-      </c>
-      <c r="C534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" t="n">
-        <v>4</v>
-      </c>
-      <c r="B535" t="n">
-        <v>1106.817</v>
-      </c>
-      <c r="C535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" t="n">
-        <v>5</v>
-      </c>
-      <c r="B536" t="n">
-        <v>1181.33</v>
-      </c>
-      <c r="C536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" t="n">
-        <v>1</v>
-      </c>
-      <c r="B537" t="n">
-        <v>1516.337</v>
-      </c>
-      <c r="C537" t="n">
-        <v>1519.924</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="n">
-        <v>2</v>
-      </c>
-      <c r="B538" t="n">
-        <v>1523.097</v>
-      </c>
-      <c r="C538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" t="n">
-        <v>3</v>
-      </c>
-      <c r="B539" t="n">
-        <v>1522.94</v>
-      </c>
-      <c r="C539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" t="n">
-        <v>4</v>
-      </c>
-      <c r="B540" t="n">
-        <v>1516.254</v>
-      </c>
-      <c r="C540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" t="n">
-        <v>5</v>
-      </c>
-      <c r="B541" t="n">
-        <v>1519.924</v>
-      </c>
-      <c r="C541" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
